--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1827193.777186386</v>
+        <v>1825871.21337445</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948782</v>
+        <v>5866991.033948788</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7782899.322744056</v>
+        <v>7782899.322744054</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>170.7481240559725</v>
+        <v>174.5560462287965</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -670,13 +670,13 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>194.5410192482073</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -882,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1960204883557</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -907,10 +907,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>182.003502976703</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8970899955588</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>125.3270113550779</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1062,13 +1062,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>93.60791859913577</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>92.96465700163724</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>87.30789393932037</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>186.5768411754253</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>112.2774342432096</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>343.4619167409753</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4342543713333</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.26594387726834</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>160.7095315021422</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.56310642661438</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1672,10 +1672,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>351.080144279057</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>67.17207269067208</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2026151578589</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>399.5401116061838</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>314.0518665500859</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2010,19 +2010,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>66.60889756510008</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>65.31383608752344</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>39.93142548241837</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2143,13 +2143,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>156.8550814710507</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2298,16 +2298,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.62709520730909</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
         <v>78.8859792091497</v>
@@ -2377,7 +2377,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920607</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U25" t="n">
         <v>279.9659758737533</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>193.7938350701832</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.4697473695408</v>
+        <v>177.7694914447158</v>
       </c>
       <c r="H26" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
         <v>78.8859792091497</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>165.2338324237998</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>19.70188050986993</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
         <v>112.8724405582094</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>179.41871194302</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2803,7 +2803,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>190.1198520010252</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.4697473695408</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>101.935567804028</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
         <v>279.9659758737533</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>132.656950411974</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>256.6554706538655</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H32" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920607</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>37.88432998251123</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>66.07896560696119</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.8250266956711</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>183.4965574034482</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U35" t="n">
         <v>254.4761865113606</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>118.5555146323702</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>173.719034683046</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>71.42047856476404</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>187.5348496534429</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>72.61778832624543</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.88597920914967</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417014</v>
       </c>
       <c r="U41" t="n">
         <v>254.4761865113606</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>170.2270503965671</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>66.07896560696116</v>
       </c>
       <c r="T43" t="n">
-        <v>145.0042940723129</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
         <v>279.9659758737533</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.4187119430209</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>179.3230888550377</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.88597920914967</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>33.376929758128</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>175.9287414815032</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1455.826617762472</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4333,49 +4333,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960225</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959275</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.2045039635594</v>
+        <v>358.622931898602</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>1374.657902201758</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>1100.77215714128</v>
       </c>
       <c r="W4" t="n">
-        <v>463.7459388002824</v>
+        <v>821.702492650154</v>
       </c>
       <c r="X4" t="n">
-        <v>329.2045039635594</v>
+        <v>583.3586305098373</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.2045039635594</v>
+        <v>358.622931898602</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654.2465468795142</v>
+        <v>1459.223623971828</v>
       </c>
       <c r="C5" t="n">
-        <v>648.1623602331883</v>
+        <v>1049.099033285098</v>
       </c>
       <c r="D5" t="n">
-        <v>647.7388343666529</v>
+        <v>1048.675507418563</v>
       </c>
       <c r="E5" t="n">
-        <v>233.3986188835496</v>
+        <v>634.3352919354597</v>
       </c>
       <c r="F5" t="n">
-        <v>216.4086108776412</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4612,7 +4612,7 @@
         <v>1465.404399595914</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.467726544004</v>
+        <v>1465.404399595914</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.6991486406494</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6057762023659</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
         <v>158.1111315252759</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.610529120012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1476.610529120012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1193.812381666136</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1193.812381666136</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>914.7427171750103</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>676.3988550346937</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.3988550346937</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.286950919918</v>
+        <v>151.4502815098256</v>
       </c>
       <c r="C8" t="n">
-        <v>648.1623602331882</v>
+        <v>145.3660948634998</v>
       </c>
       <c r="D8" t="n">
-        <v>243.6984303262487</v>
+        <v>144.9425689969644</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>134.6427575542652</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4810,46 +4810,46 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.047797426961</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W8" t="n">
-        <v>1866.047797426961</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.404399595914</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1064.467726544004</v>
+        <v>561.671461174315</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>489.9926484891412</v>
+        <v>806.9731653642398</v>
       </c>
       <c r="C10" t="n">
-        <v>489.9926484891412</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="D10" t="n">
-        <v>489.9926484891412</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="E10" t="n">
-        <v>489.9926484891412</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>956.7620193743113</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>956.7620193743113</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>677.6923548831857</v>
+        <v>1457.752432509836</v>
       </c>
       <c r="X10" t="n">
-        <v>677.6923548831857</v>
+        <v>1219.40857036952</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.6923548831857</v>
+        <v>994.6728717582841</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>453.771474890048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5080,13 +5080,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>874.0699105066985</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.4099627738212</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3165903355377</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D13" t="n">
-        <v>495.8219456584478</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E13" t="n">
-        <v>334.9111305267672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1273.917966088209</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>991.1198186343333</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>717.2340735738553</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4099627738212</v>
+        <v>717.2340735738553</v>
       </c>
       <c r="X13" t="n">
-        <v>826.4099627738212</v>
+        <v>478.8902114335386</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.4099627738212</v>
+        <v>254.1545128223033</v>
       </c>
     </row>
     <row r="14">
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4563.636292181024</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.429808127883</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.369316387393</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.531761723874</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.771460859042</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.128063027995</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.191389976085</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1615.520903630173</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
         <v>1760.328909494509</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.7454763291312</v>
+        <v>973.1712654398312</v>
       </c>
       <c r="C16" t="n">
-        <v>383.6521038908477</v>
+        <v>802.0778930015477</v>
       </c>
       <c r="D16" t="n">
-        <v>383.6521038908477</v>
+        <v>642.5832483244578</v>
       </c>
       <c r="E16" t="n">
-        <v>222.7412887591672</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F16" t="n">
-        <v>222.7412887591672</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G16" t="n">
-        <v>222.7412887591672</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>1197.906964051067</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.7454763291312</v>
+        <v>973.1712654398312</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3730.41272590526</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.652425040428</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X17" t="n">
-        <v>2946.009027209381</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y17" t="n">
-        <v>2545.072354157471</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.371818948615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.462840695405</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>417.3694682571215</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>257.8748235800315</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.696393154561</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.898245700685</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.898245700685</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="W19" t="n">
-        <v>1000.898245700685</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.898245700685</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y19" t="n">
-        <v>776.1625470894494</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>444.4869682774688</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>133.5784709051868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5837,16 +5837,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
         <v>1789.888428857139</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7425299376769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.4422363317212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E23" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F23" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G23" t="n">
-        <v>257.2495415964476</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H23" t="n">
         <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J23" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6001,40 +6001,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505085</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676371</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M24" t="n">
-        <v>97.41996410676371</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N24" t="n">
-        <v>833.069827347225</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O24" t="n">
-        <v>1558.609758636149</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q24" t="n">
         <v>2137.637783597812</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.9146087838537</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C25" t="n">
-        <v>256.9146087838537</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J25" t="n">
         <v>116.8792779475706</v>
@@ -6153,10 +6153,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M25" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N25" t="n">
         <v>1145.132879486175</v>
@@ -6171,28 +6171,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>1435.389185958427</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U25" t="n">
-        <v>1152.595270934433</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V25" t="n">
-        <v>878.7095258739553</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W25" t="n">
-        <v>878.7095258739553</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X25" t="n">
-        <v>640.3656637336387</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.6143151778981</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>665.8048419697211</v>
       </c>
       <c r="G26" t="n">
-        <v>257.2495415964476</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H26" t="n">
         <v>177.1027713887331</v>
@@ -6238,10 +6238,10 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P26" t="n">
         <v>4480.322041270213</v>
@@ -6305,28 +6305,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676371</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M27" t="n">
-        <v>97.41996410676371</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N27" t="n">
-        <v>436.4543165702217</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O27" t="n">
-        <v>1161.994247859146</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P27" t="n">
-        <v>1741.022272820809</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q27" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.964545620495</v>
+        <v>851.6486665439688</v>
       </c>
       <c r="C28" t="n">
-        <v>395.964545620495</v>
+        <v>851.6486665439688</v>
       </c>
       <c r="D28" t="n">
-        <v>395.964545620495</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="E28" t="n">
-        <v>395.964545620495</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="F28" t="n">
-        <v>231.3334197310863</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G28" t="n">
-        <v>231.3334197310863</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H28" t="n">
         <v>211.4325303271773</v>
@@ -6390,10 +6390,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M28" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N28" t="n">
         <v>1145.132879486175</v>
@@ -6408,28 +6408,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.171987275931</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="U28" t="n">
-        <v>913.3780722519373</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="V28" t="n">
-        <v>913.3780722519373</v>
+        <v>1243.287226189345</v>
       </c>
       <c r="W28" t="n">
-        <v>634.3084077608116</v>
+        <v>1243.287226189345</v>
       </c>
       <c r="X28" t="n">
-        <v>395.964545620495</v>
+        <v>1243.287226189345</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.964545620495</v>
+        <v>1018.55152757811</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E29" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F29" t="n">
         <v>894.7949994695443</v>
@@ -6460,55 +6460,55 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L29" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M29" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640254</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809207</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757297</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>436.4543165702217</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>436.4543165702217</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M30" t="n">
-        <v>436.4543165702217</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N30" t="n">
-        <v>436.4543165702217</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O30" t="n">
-        <v>1161.994247859146</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P30" t="n">
-        <v>1741.022272820809</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q30" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.295999242513</v>
+        <v>268.5133365450472</v>
       </c>
       <c r="C31" t="n">
-        <v>258.3307792384443</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D31" t="n">
-        <v>258.3307792384443</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J31" t="n">
         <v>116.8792779475706</v>
@@ -6627,10 +6627,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M31" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N31" t="n">
         <v>1145.132879486175</v>
@@ -6645,28 +6645,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>1435.389185958427</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>1152.595270934433</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V31" t="n">
-        <v>878.7095258739553</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W31" t="n">
-        <v>599.6398613828296</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X31" t="n">
-        <v>361.295999242513</v>
+        <v>493.2490351562825</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.295999242513</v>
+        <v>268.5133365450472</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F32" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G32" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J32" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6712,40 +6712,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505085</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>149.520750915574</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>149.520750915574</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M33" t="n">
-        <v>1015.482341531885</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482341531885</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O33" t="n">
-        <v>1741.022272820809</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P33" t="n">
-        <v>1741.022272820809</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q33" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.6869640890983</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6869640890983</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="D34" t="n">
-        <v>135.6869640890983</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="E34" t="n">
-        <v>135.6869640890983</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="F34" t="n">
-        <v>97.41996410676371</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="G34" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H34" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J34" t="n">
         <v>116.8792779475706</v>
@@ -6864,10 +6864,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L34" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M34" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N34" t="n">
         <v>1145.132879486175</v>
@@ -6882,28 +6882,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U34" t="n">
-        <v>913.3780722519373</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V34" t="n">
-        <v>639.4923271914593</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W34" t="n">
-        <v>360.4226627003336</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X34" t="n">
-        <v>360.4226627003336</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.6869640890983</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F35" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G35" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H35" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J35" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L35" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J36" t="n">
         <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>731.3135030713388</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M36" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N36" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.1730091899659</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C37" t="n">
-        <v>217.1730091899659</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D37" t="n">
-        <v>217.1730091899659</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E37" t="n">
-        <v>217.1730091899659</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F37" t="n">
-        <v>217.1730091899659</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G37" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H37" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I37" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J37" t="n">
         <v>116.8792779475706</v>
@@ -7101,10 +7101,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M37" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N37" t="n">
         <v>1145.132879486175</v>
@@ -7119,28 +7119,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.171987275931</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U37" t="n">
-        <v>1196.171987275931</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V37" t="n">
-        <v>922.2862422154526</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W37" t="n">
-        <v>643.216577724327</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X37" t="n">
-        <v>404.8727155840103</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y37" t="n">
-        <v>404.8727155840103</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D38" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F38" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G38" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H38" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I38" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q38" t="n">
         <v>4819.791607344925</v>
@@ -7204,22 +7204,22 @@
         <v>4739.658996968402</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M39" t="n">
-        <v>118.231407913438</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N39" t="n">
-        <v>1015.482341531885</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O39" t="n">
-        <v>1741.022272820809</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P39" t="n">
-        <v>1741.022272820809</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q39" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>595.1807777487466</v>
+        <v>521.2609145825413</v>
       </c>
       <c r="C40" t="n">
-        <v>424.0874053104631</v>
+        <v>521.2609145825413</v>
       </c>
       <c r="D40" t="n">
-        <v>264.5927606333731</v>
+        <v>521.2609145825413</v>
       </c>
       <c r="E40" t="n">
-        <v>264.5927606333731</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5927606333731</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="G40" t="n">
-        <v>97.41996410676373</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I40" t="n">
         <v>97.41996410676373</v>
@@ -7338,10 +7338,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M40" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N40" t="n">
         <v>1145.132879486175</v>
@@ -7359,25 +7359,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S40" t="n">
-        <v>1435.389185958427</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="T40" t="n">
-        <v>1435.389185958427</v>
+        <v>1381.211494048537</v>
       </c>
       <c r="U40" t="n">
-        <v>1245.960044894343</v>
+        <v>1098.417579024544</v>
       </c>
       <c r="V40" t="n">
-        <v>1245.960044894343</v>
+        <v>1025.066277684902</v>
       </c>
       <c r="W40" t="n">
-        <v>1245.960044894343</v>
+        <v>745.9966131937766</v>
       </c>
       <c r="X40" t="n">
-        <v>1007.616182754026</v>
+        <v>745.9966131937766</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.8804841427909</v>
+        <v>521.2609145825413</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732501</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L41" t="n">
         <v>1665.067141547876</v>
@@ -7426,34 +7426,34 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P41" t="n">
         <v>4480.322041270214</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210383</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168605</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505086</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y41" t="n">
         <v>2954.975327257119</v>
@@ -7487,28 +7487,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>778.2043133443128</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M42" t="n">
-        <v>778.2043133443128</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.609758636149</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O42" t="n">
-        <v>1558.609758636149</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q42" t="n">
         <v>2137.637783597812</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3425.70033609961</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C43" t="n">
-        <v>3425.70033609961</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>4870.998205338186</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="T43" t="n">
-        <v>4724.529221426759</v>
+        <v>1396.248849433913</v>
       </c>
       <c r="U43" t="n">
-        <v>4441.735306402766</v>
+        <v>1113.454934409919</v>
       </c>
       <c r="V43" t="n">
-        <v>4167.849561342287</v>
+        <v>839.5691893494413</v>
       </c>
       <c r="W43" t="n">
-        <v>3888.779896851162</v>
+        <v>560.4995248583157</v>
       </c>
       <c r="X43" t="n">
-        <v>3650.436034710845</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y43" t="n">
-        <v>3425.70033609961</v>
+        <v>97.41996410676371</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C44" t="n">
         <v>2134.629556905899</v>
@@ -7645,55 +7645,55 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J44" t="n">
         <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L44" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M44" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O44" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P44" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R44" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T44" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U44" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640254</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X44" t="n">
-        <v>3126.921842809207</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y44" t="n">
-        <v>2725.985169757297</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J45" t="n">
         <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>590.8918437439524</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>1271.676192981502</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M45" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N45" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q45" t="n">
         <v>2137.637783597812</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3688.630471443707</v>
+        <v>439.5462483702927</v>
       </c>
       <c r="C46" t="n">
-        <v>3688.630471443707</v>
+        <v>439.5462483702927</v>
       </c>
       <c r="D46" t="n">
-        <v>3529.135826766617</v>
+        <v>280.0516036932027</v>
       </c>
       <c r="E46" t="n">
-        <v>3529.135826766617</v>
+        <v>280.0516036932027</v>
       </c>
       <c r="F46" t="n">
-        <v>3529.135826766617</v>
+        <v>246.3375332304471</v>
       </c>
       <c r="G46" t="n">
-        <v>3529.135826766617</v>
+        <v>246.3375332304471</v>
       </c>
       <c r="H46" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>4604.174913274182</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>4364.957714591686</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U46" t="n">
-        <v>4364.957714591686</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V46" t="n">
-        <v>4091.071969531208</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W46" t="n">
-        <v>3913.366170054942</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X46" t="n">
-        <v>3913.366170054942</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="Y46" t="n">
-        <v>3688.630471443707</v>
+        <v>627.2459547643371</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -8069,19 +8069,19 @@
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175286</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519242</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,22 +8303,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>425.427124839344</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>237.1384347635729</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,25 +8458,25 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>296.5410069764446</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>558.5343765177347</v>
+        <v>564.2543476875378</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
@@ -8549,13 +8549,13 @@
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>651.5171678328039</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9011,19 +9011,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>204.0221919942796</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>167.8946794718224</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>448.4101882023532</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9497,7 +9497,7 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654513</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M24" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N24" t="n">
-        <v>772.4429102964093</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461623</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861589</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.31116889588058</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654513</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M27" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N27" t="n">
-        <v>371.8211822388302</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461623</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>383.4886646764982</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654513</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M30" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N30" t="n">
-        <v>29.36224035654935</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461623</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>93.65678017685397</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654513</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N33" t="n">
-        <v>29.36224035654935</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461623</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>477.9088417729242</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M36" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N36" t="n">
-        <v>29.36224035654935</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461623</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861589</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654513</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M39" t="n">
-        <v>55.36926746056937</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461623</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.438861768134</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M42" t="n">
-        <v>34.34760704978717</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N42" t="n">
-        <v>817.6505689341619</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O42" t="n">
-        <v>35.95062976461614</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588057</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681332</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11378,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0687818462712</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N45" t="n">
-        <v>29.36224035654928</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O45" t="n">
-        <v>35.95062976461614</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588057</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>62.56142803888724</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>71.84543676532957</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23466,10 +23466,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>76.44372013092269</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.36515802722576</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>45.84716204233382</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>92.12963428969164</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.90876548473901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>10.65670172208848</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>32.28731256679816</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5443540679648</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>205.8330515223498</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>45.5568195736792</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>223.0676163851324</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.8612464178138</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>226.700255924825</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>226.7002559248234</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.69450655493975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>226.700255924825</v>
       </c>
       <c r="H26" t="n">
-        <v>226.700255924825</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>20.58887690630417</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>127.7265129225767</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>226.7002559248245</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>67.44687090987263</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>103.3034731069394</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>147.8142767156753</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>226.7002559248234</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>125.1004846480034</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>99.42210295438207</v>
       </c>
       <c r="H34" t="n">
         <v>147.4283934324466</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>46.94555392897308</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
         <v>147.4283934324466</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>147.8142767156749</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>92.43112622031043</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>198.5290992836278</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>96.67443963873755</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>226.7002559248238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1891117048806</v>
+        <v>117.1101460979194</v>
       </c>
       <c r="T43" t="n">
-        <v>91.82073262335828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.7002559248237</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>226.7002559248248</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26034,7 +26034,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>129.6078848723866</v>
       </c>
       <c r="G46" t="n">
         <v>165.5010685613433</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>100.3502263647112</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652933.5641047839</v>
+        <v>652933.564104784</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652933.564104784</v>
+        <v>652933.5641047839</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652933.564104784</v>
+        <v>652933.5641047839</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652933.564104784</v>
+        <v>652933.5641047842</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671284.9018678471</v>
+        <v>671284.9018678474</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671284.9018678471</v>
+        <v>671284.901867847</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671284.9018678472</v>
+        <v>671284.9018678473</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671284.9018678471</v>
+        <v>671284.9018678473</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671284.9018678471</v>
+        <v>671284.9018678472</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671284.9018678471</v>
+        <v>671284.9018678472</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488647.1790973709</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="C2" t="n">
-        <v>488647.1790973707</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="D2" t="n">
-        <v>488647.1790973709</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="E2" t="n">
         <v>434473.0013026407</v>
@@ -26328,13 +26328,13 @@
         <v>434473.0013026407</v>
       </c>
       <c r="G2" t="n">
-        <v>434473.001302641</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="H2" t="n">
-        <v>434473.001302641</v>
+        <v>434473.0013026405</v>
       </c>
       <c r="I2" t="n">
-        <v>448846.3252671338</v>
+        <v>448846.325267134</v>
       </c>
       <c r="J2" t="n">
         <v>448846.3252671338</v>
@@ -26349,10 +26349,10 @@
         <v>448846.3252671339</v>
       </c>
       <c r="N2" t="n">
-        <v>448846.3252671341</v>
+        <v>448846.3252671338</v>
       </c>
       <c r="O2" t="n">
-        <v>448846.3252671338</v>
+        <v>448846.3252671339</v>
       </c>
       <c r="P2" t="n">
         <v>448846.3252671338</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588478</v>
+        <v>45948.6226158848</v>
       </c>
       <c r="J3" t="n">
         <v>136594.8008058949</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006826</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>74374.35696474131</v>
       </c>
       <c r="F4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="G4" t="n">
         <v>74374.35696474131</v>
       </c>
       <c r="H4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="I4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="J4" t="n">
         <v>73588.2819417936</v>
       </c>
       <c r="K4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="L4" t="n">
         <v>73588.2819417936</v>
       </c>
       <c r="M4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="N4" t="n">
         <v>73588.2819417936</v>
       </c>
       <c r="O4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="P4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="J5" t="n">
         <v>74967.83978868563</v>
       </c>
       <c r="K5" t="n">
+        <v>74967.83978868563</v>
+      </c>
+      <c r="L5" t="n">
         <v>74967.83978868564</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>74967.83978868563</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74967.83978868564</v>
       </c>
       <c r="N5" t="n">
         <v>74967.83978868564</v>
       </c>
       <c r="O5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="P5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44919.92035806723</v>
+        <v>44919.92035806711</v>
       </c>
       <c r="C6" t="n">
-        <v>219875.4302511811</v>
+        <v>219875.4302511812</v>
       </c>
       <c r="D6" t="n">
-        <v>219875.4302511813</v>
+        <v>219875.4302511812</v>
       </c>
       <c r="E6" t="n">
-        <v>97103.67119358289</v>
+        <v>96923.09060093373</v>
       </c>
       <c r="F6" t="n">
-        <v>289233.434093026</v>
+        <v>289052.8535003769</v>
       </c>
       <c r="G6" t="n">
-        <v>289233.4340930264</v>
+        <v>289052.8535003769</v>
       </c>
       <c r="H6" t="n">
-        <v>289233.4340930264</v>
+        <v>289052.8535003768</v>
       </c>
       <c r="I6" t="n">
-        <v>254341.5809207699</v>
+        <v>254208.9114080025</v>
       </c>
       <c r="J6" t="n">
-        <v>163695.4027307596</v>
+        <v>163562.7332179922</v>
       </c>
       <c r="K6" t="n">
-        <v>300290.2035366547</v>
+        <v>300157.5340238872</v>
       </c>
       <c r="L6" t="n">
-        <v>300290.2035366546</v>
+        <v>300157.5340238871</v>
       </c>
       <c r="M6" t="n">
-        <v>139931.7530359719</v>
+        <v>139799.0835232046</v>
       </c>
       <c r="N6" t="n">
-        <v>300290.2035366548</v>
+        <v>300157.534023887</v>
       </c>
       <c r="O6" t="n">
-        <v>300290.2035366546</v>
+        <v>300157.5340238872</v>
       </c>
       <c r="P6" t="n">
-        <v>300290.2035366546</v>
+        <v>300157.5340238871</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812878</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812878</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812878</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812878</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812878</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812878</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="O3" t="n">
-        <v>42.5994067681289</v>
+        <v>42.59940676812871</v>
       </c>
       <c r="P3" t="n">
-        <v>42.5994067681289</v>
+        <v>42.59940676812871</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="J4" t="n">
         <v>1217.749551334546</v>
       </c>
       <c r="K4" t="n">
+        <v>1217.749551334546</v>
+      </c>
+      <c r="L4" t="n">
         <v>1217.749551334547</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1217.749551334546</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1217.749551334547</v>
       </c>
       <c r="N4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="O4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="P4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812878</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176145</v>
+        <v>52.20333020176167</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627596</v>
+        <v>643.4826507627591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>235.2752207238901</v>
+        <v>231.467298551066</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27551,13 +27551,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>85.4291467311298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7644030305577</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>234.8166049491463</v>
       </c>
       <c r="G5" t="n">
-        <v>231.7439112705374</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>60.49569797502602</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27824,25 +27824,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>90.91993183975306</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>317.232156326635</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>329.5122139865289</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>93.39332480391181</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>164.0015336030048</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I23" t="n">
-        <v>6.60226584694788</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064918</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323039</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949134</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753708</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707887</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106946</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284867</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017085</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436437</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430392</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720065</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524823</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745522</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557579</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886151</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0768186023687568</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H25" t="n">
-        <v>0.682987210151311</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471106</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388289</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521168</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935847</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035819</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987446</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008243</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T25" t="n">
-        <v>0.328224937393779</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750377</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I26" t="n">
-        <v>6.60226584694788</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064918</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323039</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949134</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753708</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707887</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106946</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284867</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017085</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436437</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430392</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720065</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524823</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745522</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557579</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886151</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0768186023687568</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H28" t="n">
-        <v>0.682987210151311</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471106</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388289</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521168</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935847</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035819</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987446</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008243</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T28" t="n">
-        <v>0.328224937393779</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750377</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I29" t="n">
-        <v>6.60226584694788</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064918</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323039</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949134</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753708</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707887</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106946</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284867</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017085</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436437</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430392</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720065</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524823</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745522</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557579</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886151</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0768186023687568</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H31" t="n">
-        <v>0.682987210151311</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471106</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388289</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521168</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935847</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035819</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987446</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008243</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T31" t="n">
-        <v>0.328224937393779</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750377</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I32" t="n">
-        <v>6.60226584694788</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064918</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323039</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949134</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753708</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707887</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106946</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284867</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017085</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436437</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430392</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720065</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524823</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745522</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557579</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886151</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0768186023687568</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H34" t="n">
-        <v>0.682987210151311</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471106</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388289</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521168</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935847</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035819</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987446</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008243</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T34" t="n">
-        <v>0.328224937393779</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750377</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I35" t="n">
-        <v>6.60226584694788</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064918</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323039</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949134</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753708</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707887</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106946</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284867</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017085</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436437</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430392</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720065</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524823</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745522</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557579</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886151</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0768186023687568</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H37" t="n">
-        <v>0.682987210151311</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471106</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388289</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521168</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935847</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035819</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987446</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008243</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T37" t="n">
-        <v>0.328224937393779</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750377</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I38" t="n">
-        <v>6.60226584694788</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064918</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323039</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949134</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753708</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707887</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106946</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284867</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017085</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436437</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430392</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720065</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524823</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745522</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557579</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886151</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0768186023687568</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H40" t="n">
-        <v>0.682987210151311</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471106</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388289</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521168</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935847</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035819</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987446</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008243</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T40" t="n">
-        <v>0.328224937393779</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750377</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096876</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947899</v>
+        <v>6.602265846947869</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394514</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064926</v>
+        <v>27.02514928064913</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351443</v>
+        <v>30.07068576351429</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710215</v>
+        <v>30.55726089710202</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323047</v>
+        <v>28.85435496323034</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202158</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.4934942216353</v>
+        <v>18.49349422163521</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949137</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753719</v>
+        <v>3.902448167753701</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707909</v>
+        <v>0.7496639321707874</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442329</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09162891267106972</v>
+        <v>0.0916289126710693</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284892</v>
+        <v>0.8849423934284852</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017094</v>
+        <v>3.154767388017079</v>
       </c>
       <c r="J42" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436421</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430398</v>
+        <v>19.89512860430389</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863025</v>
+        <v>23.21667668863014</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720071</v>
+        <v>23.83115303720061</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538375</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821498</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524839</v>
+        <v>5.689030209524813</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745519</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557573</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006028217938886168</v>
+        <v>0.00602821793888614</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875702</v>
+        <v>0.07681860236875668</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513129</v>
+        <v>0.6829872101513099</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471121</v>
+        <v>5.431075187471097</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388315</v>
+        <v>8.924924893388274</v>
       </c>
       <c r="L43" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676792</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O43" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035846</v>
+        <v>9.290860781035803</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987464</v>
+        <v>6.432510421987435</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871565</v>
+        <v>3.454043702871549</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008247</v>
+        <v>1.338738734008241</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937784</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004190105583750388</v>
+        <v>0.00419010558375037</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096876</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947899</v>
+        <v>6.602265846947869</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394514</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064926</v>
+        <v>27.02514928064913</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351443</v>
+        <v>30.07068576351429</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710215</v>
+        <v>30.55726089710202</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323047</v>
+        <v>28.85435496323034</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202158</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.4934942216353</v>
+        <v>18.49349422163521</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949137</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753719</v>
+        <v>3.902448167753701</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707909</v>
+        <v>0.7496639321707874</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442329</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09162891267106972</v>
+        <v>0.0916289126710693</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284892</v>
+        <v>0.8849423934284852</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017094</v>
+        <v>3.154767388017079</v>
       </c>
       <c r="J45" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436421</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430398</v>
+        <v>19.89512860430389</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863025</v>
+        <v>23.21667668863014</v>
       </c>
       <c r="N45" t="n">
-        <v>23.83115303720071</v>
+        <v>23.83115303720061</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538375</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821498</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524839</v>
+        <v>5.689030209524813</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745519</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557573</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006028217938886168</v>
+        <v>0.00602821793888614</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875702</v>
+        <v>0.07681860236875668</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513129</v>
+        <v>0.6829872101513099</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471121</v>
+        <v>5.431075187471097</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388315</v>
+        <v>8.924924893388274</v>
       </c>
       <c r="L46" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676792</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O46" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035846</v>
+        <v>9.290860781035803</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987464</v>
+        <v>6.432510421987435</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871565</v>
+        <v>3.454043702871549</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008247</v>
+        <v>1.338738734008241</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937784</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004190105583750388</v>
+        <v>0.00419010558375037</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,19 +34789,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5918456237786</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491205</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,22 +35023,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>367.8628411009266</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>179.3869557635729</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>203.2507825193992</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>500.9700927793173</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9528840943865</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>110.3303957334049</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>390.8459044639358</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36363,7 +36363,7 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M23" t="n">
         <v>814.2308786844779</v>
@@ -36372,7 +36372,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P23" t="n">
         <v>559.1282394618715</v>
@@ -36381,7 +36381,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>743.0806699398599</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M26" t="n">
         <v>814.2308786844779</v>
@@ -36609,7 +36609,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P26" t="n">
         <v>559.1282394618715</v>
@@ -36618,7 +36618,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>342.4589418822808</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>584.8767928905686</v>
@@ -36697,7 +36697,7 @@
         <v>365.0745974817616</v>
       </c>
       <c r="R27" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M29" t="n">
         <v>814.2308786844779</v>
@@ -36846,7 +36846,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P29" t="n">
         <v>559.1282394618715</v>
@@ -36855,7 +36855,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>342.4589418822808</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>584.8767928905686</v>
@@ -36934,7 +36934,7 @@
         <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M32" t="n">
         <v>814.2308786844779</v>
@@ -37083,7 +37083,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P32" t="n">
         <v>559.1282394618715</v>
@@ -37092,7 +37092,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>52.62705738263666</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M35" t="n">
         <v>814.2308786844779</v>
@@ -37320,7 +37320,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P35" t="n">
         <v>559.1282394618715</v>
@@ -37329,7 +37329,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8791189787069</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>687.6609588258073</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M38" t="n">
         <v>814.2308786844779</v>
@@ -37557,7 +37557,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P38" t="n">
         <v>559.1282394618715</v>
@@ -37566,7 +37566,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M39" t="n">
-        <v>21.02166041078213</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R39" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O41" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.8985515906173</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>687.6609588258073</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>788.2883285776127</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>584.8767928905687</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K44" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.8985515906171</v>
+        <v>342.8985515906164</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>295.039059052054</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>687.6609588258073</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M45" t="n">
-        <v>874.7086773902128</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L46" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M46" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425647</v>
@@ -38195,7 +38195,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
